--- a/data-manipulation/pascascades-samples.xlsx
+++ b/data-manipulation/pascascades-samples.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="126">
   <si>
     <t>OBJECTID</t>
   </si>
@@ -98,280 +98,307 @@
     <t>10</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>&lt;Null&gt;</t>
+  </si>
+  <si>
+    <t>2118</t>
+  </si>
+  <si>
+    <t>2346</t>
+  </si>
+  <si>
+    <t>1252</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>2250</t>
+  </si>
+  <si>
+    <t>3536</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>Undetermined</t>
+  </si>
+  <si>
+    <t>Debris Burn</t>
+  </si>
+  <si>
+    <t>Lightning</t>
+  </si>
+  <si>
+    <t>15.5</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>NORTHEAST</t>
+  </si>
+  <si>
+    <t>1890</t>
+  </si>
+  <si>
+    <t>1142</t>
+  </si>
+  <si>
+    <t>3425</t>
+  </si>
+  <si>
+    <t>3050</t>
+  </si>
+  <si>
+    <t>2400</t>
+  </si>
+  <si>
+    <t>2480</t>
+  </si>
+  <si>
+    <t>2390</t>
+  </si>
+  <si>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>Miscellaneou</t>
+  </si>
+  <si>
+    <t>3.96</t>
+  </si>
+  <si>
+    <t>1467</t>
+  </si>
+  <si>
+    <t>1450</t>
+  </si>
+  <si>
+    <t>3500</t>
+  </si>
+  <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>1560</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>1630</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>2150</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>3769</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1952</t>
+  </si>
+  <si>
+    <t>2900</t>
+  </si>
+  <si>
+    <t>2038</t>
+  </si>
+  <si>
+    <t>2180</t>
+  </si>
+  <si>
+    <t>1957</t>
+  </si>
+  <si>
+    <t>Smoker</t>
+  </si>
+  <si>
+    <t>Arson</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>23.65</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>3600</t>
+  </si>
+  <si>
+    <t>1925</t>
+  </si>
+  <si>
+    <t>2240</t>
+  </si>
+  <si>
+    <t>2600</t>
+  </si>
+  <si>
+    <t>2260</t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>Railroad</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>1939</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2925</t>
+  </si>
+  <si>
+    <t>3700</t>
+  </si>
+  <si>
+    <t>1447</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>2192</t>
+  </si>
+  <si>
+    <t>39.799999999999997</t>
+  </si>
+  <si>
+    <t>3.39</t>
+  </si>
+  <si>
+    <t>1475</t>
+  </si>
+  <si>
+    <t>4214</t>
+  </si>
+  <si>
+    <t>1672</t>
+  </si>
+  <si>
+    <t>2215</t>
+  </si>
+  <si>
+    <t>3900</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
     <t>2800</t>
   </si>
   <si>
-    <t>2670</t>
-  </si>
-  <si>
-    <t>2454</t>
-  </si>
-  <si>
-    <t>1849</t>
+    <t>3230</t>
+  </si>
+  <si>
+    <t>2239</t>
+  </si>
+  <si>
+    <t>1.8</t>
   </si>
   <si>
     <t>2100</t>
   </si>
   <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>2148</t>
-  </si>
-  <si>
-    <t>&lt;Null&gt;</t>
-  </si>
-  <si>
-    <t>2500</t>
-  </si>
-  <si>
-    <t>3060</t>
-  </si>
-  <si>
-    <t>Lightning</t>
-  </si>
-  <si>
-    <t>Debris Burn</t>
-  </si>
-  <si>
-    <t>Miscellaneou</t>
-  </si>
-  <si>
-    <t>Smoker</t>
-  </si>
-  <si>
-    <t>Undetermined</t>
-  </si>
-  <si>
-    <t>2.2999999999999998</t>
-  </si>
-  <si>
-    <t>1.1200000000000001</t>
-  </si>
-  <si>
-    <t>43.5</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>Point</t>
-  </si>
-  <si>
-    <t>NORTHEAST</t>
-  </si>
-  <si>
-    <t>2600</t>
-  </si>
-  <si>
-    <t>2601</t>
-  </si>
-  <si>
-    <t>3500</t>
-  </si>
-  <si>
-    <t>3080</t>
-  </si>
-  <si>
-    <t>1900</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>3794</t>
-  </si>
-  <si>
-    <t>2300</t>
+    <t>3875</t>
+  </si>
+  <si>
+    <t>3430</t>
+  </si>
+  <si>
+    <t>1826</t>
+  </si>
+  <si>
+    <t>Recreation</t>
   </si>
   <si>
     <t>Under Invest</t>
   </si>
   <si>
-    <t>Railroad</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>2700</t>
-  </si>
-  <si>
-    <t>2060</t>
-  </si>
-  <si>
-    <t>3206</t>
-  </si>
-  <si>
-    <t>2394</t>
-  </si>
-  <si>
-    <t>2672</t>
-  </si>
-  <si>
-    <t>2400</t>
-  </si>
-  <si>
-    <t>Recreation</t>
-  </si>
-  <si>
-    <t>Logging</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1850</t>
-  </si>
-  <si>
-    <t>2200</t>
-  </si>
-  <si>
-    <t>2666</t>
-  </si>
-  <si>
-    <t>1280</t>
-  </si>
-  <si>
-    <t>2750</t>
-  </si>
-  <si>
-    <t>2250</t>
-  </si>
-  <si>
-    <t>2254</t>
-  </si>
-  <si>
-    <t>3400</t>
-  </si>
-  <si>
-    <t>2734</t>
-  </si>
-  <si>
-    <t>3350</t>
-  </si>
-  <si>
-    <t>1550</t>
-  </si>
-  <si>
-    <t>1720</t>
-  </si>
-  <si>
-    <t>2590</t>
-  </si>
-  <si>
-    <t>1325</t>
-  </si>
-  <si>
-    <t>1790</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2118</t>
-  </si>
-  <si>
-    <t>1531</t>
-  </si>
-  <si>
-    <t>2240</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>1.28</t>
-  </si>
-  <si>
-    <t>1114</t>
-  </si>
-  <si>
-    <t>1672</t>
-  </si>
-  <si>
-    <t>1700</t>
-  </si>
-  <si>
-    <t>1817</t>
-  </si>
-  <si>
-    <t>Arson</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>1600</t>
-  </si>
-  <si>
-    <t>2260</t>
-  </si>
-  <si>
-    <t>2168</t>
-  </si>
-  <si>
-    <t>3050</t>
-  </si>
-  <si>
-    <t>2050</t>
-  </si>
-  <si>
-    <t>2431</t>
-  </si>
-  <si>
-    <t>2583</t>
-  </si>
-  <si>
-    <t>2350</t>
-  </si>
-  <si>
-    <t>3600</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2.2799999999999998</t>
-  </si>
-  <si>
-    <t>1561</t>
-  </si>
-  <si>
-    <t>2346</t>
-  </si>
-  <si>
-    <t>2765</t>
-  </si>
-  <si>
-    <t>1970</t>
-  </si>
-  <si>
-    <t>2680</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>87</t>
+    <t>23.5</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>2182</t>
+  </si>
+  <si>
+    <t>3402</t>
+  </si>
+  <si>
+    <t>2170</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2276</t>
+  </si>
+  <si>
+    <t>4.5999999999999996</t>
+  </si>
+  <si>
+    <t>7.5</t>
   </si>
 </sst>
 </file>
@@ -475,49 +502,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>2881.0</v>
+        <v>13448.0</v>
       </c>
       <c r="C2" t="n">
-        <v>39.0</v>
+        <v>26.0</v>
       </c>
       <c r="D2" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="E2" t="n">
-        <v>31.0</v>
+        <v>22.0</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>15.5</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.83405</v>
+        <v>47.74257</v>
       </c>
       <c r="L2" t="n">
-        <v>-117.80647</v>
+        <v>-117.61229</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O2" t="n">
-        <v>526450.0499999996</v>
+        <v>542955.3499999999</v>
       </c>
       <c r="P2" t="n">
-        <v>201745.49999999974</v>
+        <v>81682.70000000007</v>
       </c>
     </row>
     <row r="3">
@@ -525,16 +552,16 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>4757.0</v>
+        <v>2621.0</v>
       </c>
       <c r="C3" t="n">
-        <v>34.0</v>
+        <v>26.0</v>
       </c>
       <c r="D3" t="n">
-        <v>39.0</v>
+        <v>44.0</v>
       </c>
       <c r="E3" t="n">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -543,31 +570,31 @@
         <v>35</v>
       </c>
       <c r="H3" t="n">
-        <v>2.3</v>
+        <v>6.0</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.41456</v>
+        <v>47.72033</v>
       </c>
       <c r="L3" t="n">
-        <v>-117.92557</v>
+        <v>-117.22658</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O3" t="n">
-        <v>516326.55000000057</v>
+        <v>575740.7000000002</v>
       </c>
       <c r="P3" t="n">
-        <v>155601.60000000018</v>
+        <v>79236.29999999967</v>
       </c>
     </row>
     <row r="4">
@@ -575,49 +602,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>10.0</v>
+        <v>1892.0</v>
       </c>
       <c r="C4" t="n">
-        <v>38.0</v>
+        <v>32.0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.0</v>
+        <v>44.0</v>
       </c>
       <c r="E4" t="n">
-        <v>27.0</v>
+        <v>17.0</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>2.0</v>
+        <v>1.28</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.76763</v>
+        <v>48.27946</v>
       </c>
       <c r="L4" t="n">
-        <v>-118.62872</v>
+        <v>-117.28179</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O4" t="n">
-        <v>456558.7999999999</v>
+        <v>571047.85</v>
       </c>
       <c r="P4" t="n">
-        <v>194439.29999999967</v>
+        <v>140740.60000000003</v>
       </c>
     </row>
     <row r="5">
@@ -625,49 +652,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>12203.0</v>
+        <v>7508.0</v>
       </c>
       <c r="C5" t="n">
-        <v>35.0</v>
+        <v>23.0</v>
       </c>
       <c r="D5" t="n">
-        <v>21.0</v>
+        <v>42.0</v>
       </c>
       <c r="E5" t="n">
-        <v>19.0</v>
+        <v>24.0</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" t="n">
-        <v>11.1</v>
+        <v>3.0</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>48.5213</v>
+        <v>47.46944</v>
       </c>
       <c r="L5" t="n">
-        <v>-120.2657</v>
+        <v>-117.44759</v>
       </c>
       <c r="M5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O5" t="n">
-        <v>317415.5000000004</v>
+        <v>556954.8499999995</v>
       </c>
       <c r="P5" t="n">
-        <v>167342.99999999962</v>
+        <v>51638.39999999986</v>
       </c>
     </row>
     <row r="6">
@@ -675,16 +702,16 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>1713.0</v>
+        <v>10678.0</v>
       </c>
       <c r="C6" t="n">
-        <v>36.0</v>
+        <v>29.0</v>
       </c>
       <c r="D6" t="n">
-        <v>27.0</v>
+        <v>23.0</v>
       </c>
       <c r="E6" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -693,31 +720,31 @@
         <v>35</v>
       </c>
       <c r="H6" t="n">
-        <v>28.1</v>
+        <v>2.8</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.62405</v>
+        <v>48.00529</v>
       </c>
       <c r="L6" t="n">
-        <v>-119.43358</v>
+        <v>-119.94029</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O6" t="n">
-        <v>388145.6999999995</v>
+        <v>345075.3499999996</v>
       </c>
       <c r="P6" t="n">
-        <v>178645.49999999965</v>
+        <v>110581.90000000024</v>
       </c>
     </row>
     <row r="7">
@@ -725,49 +752,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>5665.0</v>
+        <v>15735.0</v>
       </c>
       <c r="C7" t="n">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="D7" t="n">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
       <c r="E7" t="n">
-        <v>10.0</v>
+        <v>27.0</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H7" t="n">
-        <v>1.12</v>
+        <v>16.0</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>47.76734</v>
+        <v>47.3676</v>
       </c>
       <c r="L7" t="n">
-        <v>-117.36026</v>
+        <v>-117.62056</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O7" t="n">
-        <v>564377.9000000003</v>
+        <v>542252.4000000003</v>
       </c>
       <c r="P7" t="n">
-        <v>84407.3999999997</v>
+        <v>40436.000000000335</v>
       </c>
     </row>
     <row r="8">
@@ -775,49 +802,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>9820.0</v>
+        <v>17344.0</v>
       </c>
       <c r="C8" t="n">
-        <v>38.0</v>
+        <v>23.0</v>
       </c>
       <c r="D8" t="n">
-        <v>28.0</v>
+        <v>42.0</v>
       </c>
       <c r="E8" t="n">
-        <v>7.0</v>
+        <v>22.0</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H8" t="n">
-        <v>1.4</v>
+        <v>6.5</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.80504</v>
+        <v>47.47039</v>
       </c>
       <c r="L8" t="n">
-        <v>-119.34418</v>
+        <v>-117.49011</v>
       </c>
       <c r="M8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O8" t="n">
-        <v>395744.7000000005</v>
+        <v>553340.6499999999</v>
       </c>
       <c r="P8" t="n">
-        <v>198554.3999999998</v>
+        <v>51742.900000000205</v>
       </c>
     </row>
     <row r="9">
@@ -825,49 +852,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>16462.0</v>
+        <v>2709.0</v>
       </c>
       <c r="C9" t="n">
-        <v>34.0</v>
+        <v>39.0</v>
       </c>
       <c r="D9" t="n">
-        <v>33.0</v>
+        <v>39.0</v>
       </c>
       <c r="E9" t="n">
-        <v>18.0</v>
+        <v>25.0</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H9" t="n">
-        <v>2.0</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.44546</v>
+        <v>48.85559</v>
       </c>
       <c r="L9" t="n">
-        <v>-118.70152</v>
+        <v>-117.82274</v>
       </c>
       <c r="M9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O9" t="n">
-        <v>450370.7999999998</v>
+        <v>525067.1000000003</v>
       </c>
       <c r="P9" t="n">
-        <v>159000.5999999997</v>
+        <v>204114.89999999994</v>
       </c>
     </row>
     <row r="10">
@@ -875,49 +902,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>16153.0</v>
+        <v>911.0</v>
       </c>
       <c r="C10" t="n">
-        <v>36.0</v>
+        <v>34.0</v>
       </c>
       <c r="D10" t="n">
-        <v>38.0</v>
+        <v>22.0</v>
       </c>
       <c r="E10" t="n">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="n">
-        <v>43.5</v>
+        <v>2.7</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>48.62368</v>
+        <v>48.42632</v>
       </c>
       <c r="L10" t="n">
-        <v>-117.9901</v>
+        <v>-120.10321</v>
       </c>
       <c r="M10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O10" t="n">
-        <v>510841.5000000002</v>
+        <v>331227.1499999996</v>
       </c>
       <c r="P10" t="n">
-        <v>178604.80000000002</v>
+        <v>156895.19999999966</v>
       </c>
     </row>
     <row r="11">
@@ -925,49 +952,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>6815.0</v>
+        <v>17410.0</v>
       </c>
       <c r="C11" t="n">
-        <v>35.0</v>
+        <v>29.0</v>
       </c>
       <c r="D11" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="E11" t="n">
-        <v>28.0</v>
+        <v>14.0</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H11" t="n">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.50196</v>
+        <v>48.0159</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.76563</v>
+        <v>-117.34694</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O11" t="n">
-        <v>529921.4499999998</v>
+        <v>565510.0999999997</v>
       </c>
       <c r="P11" t="n">
-        <v>165215.59999999966</v>
+        <v>111749.00000000022</v>
       </c>
     </row>
   </sheetData>
@@ -1036,49 +1063,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>18048.0</v>
+        <v>17833.0</v>
       </c>
       <c r="C2" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="D2" t="n">
-        <v>41.0</v>
+        <v>34.0</v>
       </c>
       <c r="E2" t="n">
-        <v>18.0</v>
+        <v>25.0</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>8.4</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>47.75751</v>
+        <v>47.80776</v>
       </c>
       <c r="L2" t="n">
-        <v>-117.6877</v>
+        <v>-118.46487</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O2" t="n">
-        <v>536545.4999999994</v>
+        <v>470486.0499999996</v>
       </c>
       <c r="P2" t="n">
-        <v>83326.10000000038</v>
+        <v>88853.6000000002</v>
       </c>
     </row>
     <row r="3">
@@ -1086,49 +1113,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>2709.0</v>
+        <v>10249.0</v>
       </c>
       <c r="C3" t="n">
-        <v>39.0</v>
+        <v>28.0</v>
       </c>
       <c r="D3" t="n">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.85559</v>
+        <v>47.88445</v>
       </c>
       <c r="L3" t="n">
-        <v>-117.82274</v>
+        <v>-118.25725</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O3" t="n">
-        <v>525067.1000000003</v>
+        <v>488133.75000000006</v>
       </c>
       <c r="P3" t="n">
-        <v>204114.89999999994</v>
+        <v>97289.50000000012</v>
       </c>
     </row>
     <row r="4">
@@ -1136,49 +1163,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>10994.0</v>
+        <v>16609.0</v>
       </c>
       <c r="C4" t="n">
-        <v>37.0</v>
+        <v>40.0</v>
       </c>
       <c r="D4" t="n">
         <v>26.0</v>
       </c>
       <c r="E4" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.7251</v>
+        <v>48.94639</v>
       </c>
       <c r="L4" t="n">
-        <v>-119.54044</v>
+        <v>-119.60174</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O4" t="n">
-        <v>379062.5999999997</v>
+        <v>373852.09999999945</v>
       </c>
       <c r="P4" t="n">
-        <v>189760.99999999974</v>
+        <v>214102.9000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1186,49 +1213,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>8777.0</v>
+        <v>1128.0</v>
       </c>
       <c r="C5" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="D5" t="n">
-        <v>45.0</v>
+        <v>40.0</v>
       </c>
       <c r="E5" t="n">
-        <v>12.0</v>
+        <v>27.0</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="I5" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>47.68032</v>
+        <v>47.90254</v>
       </c>
       <c r="L5" t="n">
-        <v>-117.05511</v>
+        <v>-117.74835</v>
       </c>
       <c r="M5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O5" t="n">
-        <v>590315.65</v>
+        <v>531390.2499999998</v>
       </c>
       <c r="P5" t="n">
-        <v>74835.2000000002</v>
+        <v>99279.40000000021</v>
       </c>
     </row>
     <row r="6">
@@ -1236,49 +1263,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>7508.0</v>
+        <v>18397.0</v>
       </c>
       <c r="C6" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="D6" t="n">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="E6" t="n">
-        <v>24.0</v>
+        <v>5.0</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H6" t="n">
-        <v>3.0</v>
+        <v>1.56</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>47.46944</v>
+        <v>47.59646</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.44759</v>
+        <v>-117.65308</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O6" t="n">
-        <v>556954.8499999995</v>
+        <v>539488.1999999997</v>
       </c>
       <c r="P6" t="n">
-        <v>51638.39999999986</v>
+        <v>65610.60000000005</v>
       </c>
     </row>
     <row r="7">
@@ -1286,49 +1313,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>17986.0</v>
+        <v>11680.0</v>
       </c>
       <c r="C7" t="n">
-        <v>36.0</v>
+        <v>39.0</v>
       </c>
       <c r="D7" t="n">
-        <v>32.0</v>
+        <v>43.0</v>
       </c>
       <c r="E7" t="n">
-        <v>36.0</v>
+        <v>31.0</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="H7" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.58103</v>
+        <v>48.83191</v>
       </c>
       <c r="L7" t="n">
-        <v>-118.7458</v>
+        <v>-117.41371</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O7" t="n">
-        <v>446606.99999999977</v>
+        <v>559834.6500000005</v>
       </c>
       <c r="P7" t="n">
-        <v>173913.2999999998</v>
+        <v>201510.10000000006</v>
       </c>
     </row>
     <row r="8">
@@ -1336,49 +1363,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>1099.0</v>
+        <v>8258.0</v>
       </c>
       <c r="C8" t="n">
-        <v>38.0</v>
+        <v>31.0</v>
       </c>
       <c r="D8" t="n">
-        <v>27.0</v>
+        <v>45.0</v>
       </c>
       <c r="E8" t="n">
-        <v>13.0</v>
+        <v>33.0</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.79075</v>
+        <v>48.15047</v>
       </c>
       <c r="L8" t="n">
-        <v>-119.38288</v>
+        <v>-117.11519</v>
       </c>
       <c r="M8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O8" t="n">
-        <v>392455.2</v>
+        <v>585208.8500000001</v>
       </c>
       <c r="P8" t="n">
-        <v>196982.5000000003</v>
+        <v>126551.69999999984</v>
       </c>
     </row>
     <row r="9">
@@ -1386,49 +1413,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>6381.0</v>
+        <v>15704.0</v>
       </c>
       <c r="C9" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="D9" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="E9" t="n">
-        <v>5.0</v>
+        <v>48.0</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H9" t="n">
-        <v>1.2</v>
+        <v>6.9</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.12256</v>
+        <v>48.186266</v>
       </c>
       <c r="L9" t="n">
-        <v>-119.98483</v>
+        <v>-120.172799</v>
       </c>
       <c r="M9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O9" t="n">
-        <v>341289.4499999998</v>
+        <v>325312.0850000002</v>
       </c>
       <c r="P9" t="n">
-        <v>123481.6</v>
+        <v>130489.26000000037</v>
       </c>
     </row>
     <row r="10">
@@ -1436,49 +1463,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>17023.0</v>
+        <v>11021.0</v>
       </c>
       <c r="C10" t="n">
-        <v>39.0</v>
+        <v>30.0</v>
       </c>
       <c r="D10" t="n">
-        <v>37.0</v>
+        <v>44.0</v>
       </c>
       <c r="E10" t="n">
         <v>9.0</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H10" t="n">
-        <v>87.0</v>
+        <v>2.5</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>48.88776</v>
+        <v>48.11313</v>
       </c>
       <c r="L10" t="n">
-        <v>-117.85762</v>
+        <v>-117.25424</v>
       </c>
       <c r="M10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O10" t="n">
-        <v>522102.3000000002</v>
+        <v>573389.6000000003</v>
       </c>
       <c r="P10" t="n">
-        <v>207653.6</v>
+        <v>122444.2999999998</v>
       </c>
     </row>
     <row r="11">
@@ -1486,49 +1513,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>14924.0</v>
+        <v>5336.0</v>
       </c>
       <c r="C11" t="n">
-        <v>34.0</v>
+        <v>26.0</v>
       </c>
       <c r="D11" t="n">
-        <v>32.0</v>
+        <v>42.0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.0</v>
+        <v>21.0</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H11" t="n">
-        <v>1.0</v>
+        <v>1.78</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.47433</v>
+        <v>47.73536</v>
       </c>
       <c r="L11" t="n">
-        <v>-118.744</v>
+        <v>-117.4994</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O11" t="n">
-        <v>446760.0</v>
+        <v>552551.0000000005</v>
       </c>
       <c r="P11" t="n">
-        <v>162176.30000000022</v>
+        <v>80889.6</v>
       </c>
     </row>
   </sheetData>
@@ -1597,49 +1624,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>2280.0</v>
+        <v>7402.0</v>
       </c>
       <c r="C2" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="D2" t="n">
         <v>30.0</v>
       </c>
-      <c r="D2" t="n">
-        <v>37.0</v>
-      </c>
       <c r="E2" t="n">
-        <v>27.0</v>
+        <v>32.0</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
         <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.07637</v>
+        <v>48.229658</v>
       </c>
       <c r="L2" t="n">
-        <v>-118.13189</v>
+        <v>-119.072172</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O2" t="n">
-        <v>498789.35000000015</v>
+        <v>418865.38000000047</v>
       </c>
       <c r="P2" t="n">
-        <v>118400.69999999969</v>
+        <v>135262.38000000006</v>
       </c>
     </row>
     <row r="3">
@@ -1647,49 +1674,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>10610.0</v>
+        <v>5175.0</v>
       </c>
       <c r="C3" t="n">
-        <v>35.0</v>
+        <v>28.0</v>
       </c>
       <c r="D3" t="n">
-        <v>30.0</v>
+        <v>43.0</v>
       </c>
       <c r="E3" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.5504</v>
+        <v>47.92706</v>
       </c>
       <c r="L3" t="n">
-        <v>-119.0198</v>
+        <v>-117.34497</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O3" t="n">
-        <v>423316.9999999997</v>
+        <v>565677.5499999997</v>
       </c>
       <c r="P3" t="n">
-        <v>170544.00000000038</v>
+        <v>101976.5999999997</v>
       </c>
     </row>
     <row r="4">
@@ -1697,49 +1724,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>579.0</v>
+        <v>3075.0</v>
       </c>
       <c r="C4" t="n">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="D4" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="E4" t="n">
-        <v>20.0</v>
+        <v>36.0</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>1.0</v>
+        <v>1.1</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.85971</v>
+        <v>48.66661</v>
       </c>
       <c r="L4" t="n">
-        <v>-119.33379</v>
+        <v>-119.51497</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O4" t="n">
-        <v>396627.85000000056</v>
+        <v>381227.5499999996</v>
       </c>
       <c r="P4" t="n">
-        <v>204568.09999999998</v>
+        <v>183327.09999999983</v>
       </c>
     </row>
     <row r="5">
@@ -1747,49 +1774,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>14936.0</v>
+        <v>7988.0</v>
       </c>
       <c r="C5" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E5" t="n">
         <v>25.0</v>
       </c>
-      <c r="D5" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>28.0</v>
-      </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H5" t="n">
-        <v>20.0</v>
+        <v>2.5</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>47.63001</v>
+        <v>48.76037</v>
       </c>
       <c r="L5" t="n">
-        <v>-118.2725</v>
+        <v>-118.59027</v>
       </c>
       <c r="M5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O5" t="n">
-        <v>486837.5000000005</v>
+        <v>459827.0499999997</v>
       </c>
       <c r="P5" t="n">
-        <v>69301.09999999985</v>
+        <v>193640.7000000002</v>
       </c>
     </row>
     <row r="6">
@@ -1797,49 +1824,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>14179.0</v>
+        <v>2951.0</v>
       </c>
       <c r="C6" t="n">
-        <v>38.0</v>
+        <v>26.0</v>
       </c>
       <c r="D6" t="n">
-        <v>28.0</v>
+        <v>41.0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.0</v>
+        <v>34.0</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H6" t="n">
-        <v>7.0</v>
+        <v>18.5</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.82685</v>
+        <v>47.71015</v>
       </c>
       <c r="L6" t="n">
-        <v>-119.24026</v>
+        <v>-117.62291</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O6" t="n">
-        <v>404577.89999999944</v>
+        <v>542052.6499999997</v>
       </c>
       <c r="P6" t="n">
-        <v>200953.50000000003</v>
+        <v>78116.49999999985</v>
       </c>
     </row>
     <row r="7">
@@ -1847,49 +1874,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>19441.0</v>
+        <v>12817.0</v>
       </c>
       <c r="C7" t="n">
         <v>28.0</v>
       </c>
       <c r="D7" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="E7" t="n">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
       </c>
       <c r="H7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>47.91288</v>
+        <v>47.94412</v>
       </c>
       <c r="L7" t="n">
-        <v>-117.393</v>
+        <v>-117.18863</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O7" t="n">
-        <v>561595.0</v>
+        <v>578966.4499999997</v>
       </c>
       <c r="P7" t="n">
-        <v>100416.80000000013</v>
+        <v>103853.1999999998</v>
       </c>
     </row>
     <row r="8">
@@ -1897,49 +1924,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>20660.0</v>
+        <v>18397.0</v>
       </c>
       <c r="C8" t="n">
-        <v>33.0</v>
+        <v>24.0</v>
       </c>
       <c r="D8" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="E8" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H8" t="n">
-        <v>7.0</v>
+        <v>1.56</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.36069</v>
+        <v>47.59646</v>
       </c>
       <c r="L8" t="n">
-        <v>-117.88347</v>
+        <v>-117.65308</v>
       </c>
       <c r="M8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O8" t="n">
-        <v>519905.04999999976</v>
+        <v>539488.1999999997</v>
       </c>
       <c r="P8" t="n">
-        <v>149675.8999999998</v>
+        <v>65610.60000000005</v>
       </c>
     </row>
     <row r="9">
@@ -1947,49 +1974,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>15053.0</v>
+        <v>626.0</v>
       </c>
       <c r="C9" t="n">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
       <c r="D9" t="n">
-        <v>30.0</v>
+        <v>21.0</v>
       </c>
       <c r="E9" t="n">
-        <v>3.0</v>
+        <v>25.0</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H9" t="n">
-        <v>1.7</v>
+        <v>46.6</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.73875</v>
+        <v>48.50291</v>
       </c>
       <c r="L9" t="n">
-        <v>-119.01448</v>
+        <v>-120.14618</v>
       </c>
       <c r="M9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O9" t="n">
-        <v>423769.1999999995</v>
+        <v>327574.6999999999</v>
       </c>
       <c r="P9" t="n">
-        <v>191262.50000000035</v>
+        <v>165320.1</v>
       </c>
     </row>
     <row r="10">
@@ -1997,49 +2024,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>11792.0</v>
+        <v>375.0</v>
       </c>
       <c r="C10" t="n">
-        <v>26.0</v>
+        <v>39.0</v>
       </c>
       <c r="D10" t="n">
-        <v>40.0</v>
+        <v>33.0</v>
       </c>
       <c r="E10" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" t="n">
-        <v>5.0</v>
+        <v>3.96</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="J10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>47.78308</v>
+        <v>48.89513</v>
       </c>
       <c r="L10" t="n">
-        <v>-117.77956</v>
+        <v>-118.66729</v>
       </c>
       <c r="M10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O10" t="n">
-        <v>528737.3999999997</v>
+        <v>453280.3500000005</v>
       </c>
       <c r="P10" t="n">
-        <v>86138.7999999998</v>
+        <v>208464.3000000002</v>
       </c>
     </row>
     <row r="11">
@@ -2047,49 +2074,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>7856.0</v>
+        <v>18210.0</v>
       </c>
       <c r="C11" t="n">
-        <v>27.0</v>
+        <v>36.0</v>
       </c>
       <c r="D11" t="n">
-        <v>44.0</v>
+        <v>39.0</v>
       </c>
       <c r="E11" t="n">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>47.85154</v>
+        <v>48.58536</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.23195</v>
+        <v>-117.82718</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O11" t="n">
-        <v>575284.2500000002</v>
+        <v>524689.7000000002</v>
       </c>
       <c r="P11" t="n">
-        <v>93669.4</v>
+        <v>174389.60000000015</v>
       </c>
     </row>
   </sheetData>
@@ -2158,49 +2185,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>2907.0</v>
+        <v>12530.0</v>
       </c>
       <c r="C2" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="D2" t="n">
-        <v>37.0</v>
+        <v>26.0</v>
       </c>
       <c r="E2" t="n">
-        <v>33.0</v>
+        <v>9.0</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4</v>
+        <v>9.9</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.83751</v>
+        <v>48.8126</v>
       </c>
       <c r="L2" t="n">
-        <v>-118.11509</v>
+        <v>-119.58009</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O2" t="n">
-        <v>500217.35000000044</v>
+        <v>375692.35000000015</v>
       </c>
       <c r="P2" t="n">
-        <v>202126.10000000018</v>
+        <v>199386.00000000038</v>
       </c>
     </row>
     <row r="3">
@@ -2208,49 +2235,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>14306.0</v>
+        <v>14476.0</v>
       </c>
       <c r="C3" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="D3" t="n">
-        <v>35.0</v>
+        <v>24.0</v>
       </c>
       <c r="E3" t="n">
-        <v>12.0</v>
+        <v>24.0</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" t="n">
-        <v>2.0</v>
+        <v>30.0</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.03393</v>
+        <v>48.17247</v>
       </c>
       <c r="L3" t="n">
-        <v>-118.3586</v>
+        <v>-119.77398</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O3" t="n">
-        <v>479519.00000000035</v>
+        <v>359211.7000000005</v>
       </c>
       <c r="P3" t="n">
-        <v>113732.29999999978</v>
+        <v>128971.69999999968</v>
       </c>
     </row>
     <row r="4">
@@ -2258,49 +2285,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>5338.0</v>
+        <v>2651.0</v>
       </c>
       <c r="C4" t="n">
-        <v>27.0</v>
+        <v>39.0</v>
       </c>
       <c r="D4" t="n">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="E4" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>1.9</v>
+        <v>3.0</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>47.85139</v>
+        <v>48.87973</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.69343</v>
+        <v>-118.54176</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O4" t="n">
-        <v>536058.4499999995</v>
+        <v>463950.4000000003</v>
       </c>
       <c r="P4" t="n">
-        <v>93652.90000000023</v>
+        <v>206770.30000000022</v>
       </c>
     </row>
     <row r="5">
@@ -2308,49 +2335,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>11530.0</v>
+        <v>5336.0</v>
       </c>
       <c r="C5" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="D5" t="n">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="E5" t="n">
-        <v>28.0</v>
+        <v>21.0</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="H5" t="n">
-        <v>1.0</v>
+        <v>1.78</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>47.62962</v>
+        <v>47.73536</v>
       </c>
       <c r="L5" t="n">
-        <v>-117.12422</v>
+        <v>-117.4994</v>
       </c>
       <c r="M5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O5" t="n">
-        <v>584441.3000000005</v>
+        <v>552551.0000000005</v>
       </c>
       <c r="P5" t="n">
-        <v>69258.2000000003</v>
+        <v>80889.6</v>
       </c>
     </row>
     <row r="6">
@@ -2358,49 +2385,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>11996.0</v>
+        <v>7155.0</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0</v>
+        <v>35.0</v>
       </c>
       <c r="D6" t="n">
-        <v>45.0</v>
+        <v>37.0</v>
       </c>
       <c r="E6" t="n">
-        <v>34.0</v>
+        <v>30.0</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H6" t="n">
-        <v>1.8</v>
+        <v>28.0</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>47.26502</v>
+        <v>48.49822</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.10725</v>
+        <v>-118.20354</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O6" t="n">
-        <v>585883.7500000006</v>
+        <v>492699.0999999997</v>
       </c>
       <c r="P6" t="n">
-        <v>29152.19999999998</v>
+        <v>164804.2000000004</v>
       </c>
     </row>
     <row r="7">
@@ -2408,49 +2435,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>16178.0</v>
+        <v>16240.0</v>
       </c>
       <c r="C7" t="n">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="D7" t="n">
-        <v>24.0</v>
+        <v>39.0</v>
       </c>
       <c r="E7" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>13.4</v>
+        <v>3.37</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.1942</v>
+        <v>48.46251</v>
       </c>
       <c r="L7" t="n">
-        <v>-119.75785</v>
+        <v>-117.88696</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O7" t="n">
-        <v>360582.7499999996</v>
+        <v>519608.39999999985</v>
       </c>
       <c r="P7" t="n">
-        <v>131362.00000000023</v>
+        <v>160876.10000000018</v>
       </c>
     </row>
     <row r="8">
@@ -2458,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>845.0</v>
+        <v>12369.0</v>
       </c>
       <c r="C8" t="n">
         <v>31.0</v>
@@ -2467,40 +2494,40 @@
         <v>22.0</v>
       </c>
       <c r="E8" t="n">
-        <v>24.0</v>
+        <v>17.0</v>
       </c>
       <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I8" t="s">
         <v>62</v>
       </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.17713</v>
+        <v>48.18099</v>
       </c>
       <c r="L8" t="n">
-        <v>-120.0331</v>
+        <v>-120.11994</v>
       </c>
       <c r="M8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O8" t="n">
-        <v>337186.4999999996</v>
+        <v>329805.10000000003</v>
       </c>
       <c r="P8" t="n">
-        <v>129484.2999999998</v>
+        <v>129908.90000000014</v>
       </c>
     </row>
     <row r="9">
@@ -2508,49 +2535,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>11664.0</v>
+        <v>19072.0</v>
       </c>
       <c r="C9" t="n">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
       <c r="D9" t="n">
-        <v>26.0</v>
+        <v>37.0</v>
       </c>
       <c r="E9" t="n">
-        <v>27.0</v>
+        <v>13.0</v>
       </c>
       <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I9" t="s">
         <v>63</v>
       </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.8445</v>
+        <v>48.61255</v>
       </c>
       <c r="L9" t="n">
-        <v>-119.54178</v>
+        <v>-118.10214</v>
       </c>
       <c r="M9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O9" t="n">
-        <v>378948.6999999998</v>
+        <v>501318.0999999995</v>
       </c>
       <c r="P9" t="n">
-        <v>202894.99999999962</v>
+        <v>177380.49999999988</v>
       </c>
     </row>
     <row r="10">
@@ -2558,49 +2585,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>19304.0</v>
+        <v>12854.0</v>
       </c>
       <c r="C10" t="n">
-        <v>30.0</v>
+        <v>38.0</v>
       </c>
       <c r="D10" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="E10" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="H10" t="n">
-        <v>1.2</v>
+        <v>6.0</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>48.1155</v>
+        <v>48.8188</v>
       </c>
       <c r="L10" t="n">
-        <v>-117.95912</v>
+        <v>-118.16472</v>
       </c>
       <c r="M10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O10" t="n">
-        <v>513474.8000000001</v>
+        <v>495998.79999999976</v>
       </c>
       <c r="P10" t="n">
-        <v>122704.9999999997</v>
+        <v>200068.00000000035</v>
       </c>
     </row>
     <row r="11">
@@ -2608,49 +2635,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>6307.0</v>
+        <v>13222.0</v>
       </c>
       <c r="C11" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="D11" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="E11" t="n">
-        <v>32.0</v>
+        <v>25.0</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>1.29</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>47.70286</v>
+        <v>47.81084</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.64953</v>
+        <v>-117.435</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O11" t="n">
-        <v>539789.9500000001</v>
+        <v>558024.9999999998</v>
       </c>
       <c r="P11" t="n">
-        <v>77314.60000000012</v>
+        <v>89192.39999999988</v>
       </c>
     </row>
   </sheetData>
@@ -2719,49 +2746,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>15742.0</v>
+        <v>11296.0</v>
       </c>
       <c r="C2" t="n">
-        <v>24.0</v>
+        <v>34.0</v>
       </c>
       <c r="D2" t="n">
-        <v>44.0</v>
+        <v>39.0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>1.5</v>
+        <v>3.0</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>47.54543</v>
+        <v>48.41825</v>
       </c>
       <c r="L2" t="n">
-        <v>-117.20362</v>
+        <v>-117.88191</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O2" t="n">
-        <v>577692.2999999999</v>
+        <v>520037.6499999996</v>
       </c>
       <c r="P2" t="n">
-        <v>59997.30000000035</v>
+        <v>156007.50000000006</v>
       </c>
     </row>
     <row r="3">
@@ -2769,49 +2796,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>1921.0</v>
+        <v>20094.0</v>
       </c>
       <c r="C3" t="n">
-        <v>33.0</v>
+        <v>38.0</v>
       </c>
       <c r="D3" t="n">
-        <v>22.0</v>
+        <v>40.0</v>
       </c>
       <c r="E3" t="n">
-        <v>14.0</v>
+        <v>27.0</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H3" t="n">
-        <v>9.5</v>
+        <v>1.75</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.35376</v>
+        <v>48.77674</v>
       </c>
       <c r="L3" t="n">
-        <v>-120.03815</v>
+        <v>-117.74761</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O3" t="n">
-        <v>336757.2499999999</v>
+        <v>531453.1500000005</v>
       </c>
       <c r="P3" t="n">
-        <v>148913.60000000012</v>
+        <v>195441.39999999964</v>
       </c>
     </row>
     <row r="4">
@@ -2819,49 +2846,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>4757.0</v>
+        <v>2753.0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.0</v>
+        <v>30.0</v>
       </c>
       <c r="D4" t="n">
-        <v>39.0</v>
+        <v>22.0</v>
       </c>
       <c r="E4" t="n">
-        <v>29.0</v>
+        <v>4.0</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="J4" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.41456</v>
+        <v>48.12993</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.92557</v>
+        <v>-120.08763</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O4" t="n">
-        <v>516326.55000000057</v>
+        <v>332551.4499999996</v>
       </c>
       <c r="P4" t="n">
-        <v>155601.60000000018</v>
+        <v>124292.30000000018</v>
       </c>
     </row>
     <row r="5">
@@ -2869,49 +2896,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>18920.0</v>
+        <v>9773.0</v>
       </c>
       <c r="C5" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="D5" t="n">
-        <v>33.0</v>
+        <v>45.0</v>
       </c>
       <c r="E5" t="n">
-        <v>12.0</v>
+        <v>25.0</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="H5" t="n">
-        <v>22.0</v>
+        <v>14.0</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>47.76341</v>
+        <v>47.62929</v>
       </c>
       <c r="L5" t="n">
-        <v>-118.60561</v>
+        <v>-117.05452</v>
       </c>
       <c r="M5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O5" t="n">
-        <v>458523.15000000014</v>
+        <v>590365.8000000003</v>
       </c>
       <c r="P5" t="n">
-        <v>83975.10000000003</v>
+        <v>69221.89999999972</v>
       </c>
     </row>
     <row r="6">
@@ -2919,49 +2946,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>16296.0</v>
+        <v>1615.0</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
       <c r="D6" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="E6" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H6" t="n">
-        <v>22.0</v>
+        <v>1.6</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>47.3458</v>
+        <v>48.00471</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.63633</v>
+        <v>-117.28154</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O6" t="n">
-        <v>540911.95</v>
+        <v>571069.0999999994</v>
       </c>
       <c r="P6" t="n">
-        <v>38037.99999999967</v>
+        <v>110518.10000000031</v>
       </c>
     </row>
     <row r="7">
@@ -2969,49 +2996,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>14832.0</v>
+        <v>9291.0</v>
       </c>
       <c r="C7" t="n">
-        <v>38.0</v>
+        <v>33.0</v>
       </c>
       <c r="D7" t="n">
-        <v>33.0</v>
+        <v>37.0</v>
       </c>
       <c r="E7" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>1.5</v>
+        <v>5.0</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.79665</v>
+        <v>48.37114</v>
       </c>
       <c r="L7" t="n">
-        <v>-118.59022</v>
+        <v>-118.09298</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O7" t="n">
-        <v>459831.2999999998</v>
+        <v>502096.70000000024</v>
       </c>
       <c r="P7" t="n">
-        <v>197631.49999999997</v>
+        <v>150825.39999999967</v>
       </c>
     </row>
     <row r="8">
@@ -3019,49 +3046,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>15917.0</v>
+        <v>2496.0</v>
       </c>
       <c r="C8" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="D8" t="n">
-        <v>25.0</v>
+        <v>40.0</v>
       </c>
       <c r="E8" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" t="n">
-        <v>6.8</v>
+        <v>23.65</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.32827</v>
+        <v>48.50568</v>
       </c>
       <c r="L8" t="n">
-        <v>-119.66543</v>
+        <v>-117.77099</v>
       </c>
       <c r="M8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O8" t="n">
-        <v>368438.44999999995</v>
+        <v>529465.8500000002</v>
       </c>
       <c r="P8" t="n">
-        <v>146109.70000000036</v>
+        <v>165624.79999999978</v>
       </c>
     </row>
     <row r="9">
@@ -3069,49 +3096,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>7204.0</v>
+        <v>19162.0</v>
       </c>
       <c r="C9" t="n">
-        <v>27.0</v>
+        <v>38.0</v>
       </c>
       <c r="D9" t="n">
-        <v>44.0</v>
+        <v>39.0</v>
       </c>
       <c r="E9" t="n">
-        <v>2.0</v>
+        <v>30.0</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H9" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>47.86567</v>
+        <v>48.7642</v>
       </c>
       <c r="L9" t="n">
-        <v>-117.21037</v>
+        <v>-117.94194</v>
       </c>
       <c r="M9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O9" t="n">
-        <v>577118.5500000002</v>
+        <v>514935.0999999998</v>
       </c>
       <c r="P9" t="n">
-        <v>95223.70000000016</v>
+        <v>194062.00000000026</v>
       </c>
     </row>
     <row r="10">
@@ -3119,49 +3146,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>15053.0</v>
+        <v>1855.0</v>
       </c>
       <c r="C10" t="n">
-        <v>37.0</v>
+        <v>25.0</v>
       </c>
       <c r="D10" t="n">
-        <v>30.0</v>
+        <v>44.0</v>
       </c>
       <c r="E10" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="H10" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>48.73875</v>
+        <v>47.67696</v>
       </c>
       <c r="L10" t="n">
-        <v>-119.01448</v>
+        <v>-117.1832</v>
       </c>
       <c r="M10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O10" t="n">
-        <v>423769.1999999995</v>
+        <v>579428.0</v>
       </c>
       <c r="P10" t="n">
-        <v>191262.50000000035</v>
+        <v>74465.60000000012</v>
       </c>
     </row>
     <row r="11">
@@ -3169,49 +3196,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>10283.0</v>
+        <v>2709.0</v>
       </c>
       <c r="C11" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="D11" t="n">
-        <v>27.0</v>
+        <v>39.0</v>
       </c>
       <c r="E11" t="n">
-        <v>14.0</v>
+        <v>25.0</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
         <v>35</v>
       </c>
       <c r="H11" t="n">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.97205</v>
+        <v>48.85559</v>
       </c>
       <c r="L11" t="n">
-        <v>-119.37709</v>
+        <v>-117.82274</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O11" t="n">
-        <v>392947.3500000004</v>
+        <v>525067.1000000003</v>
       </c>
       <c r="P11" t="n">
-        <v>216925.50000000032</v>
+        <v>204114.89999999994</v>
       </c>
     </row>
   </sheetData>
@@ -3280,49 +3307,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>3071.0</v>
+        <v>2860.0</v>
       </c>
       <c r="C2" t="n">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
       <c r="D2" t="n">
-        <v>45.0</v>
+        <v>36.0</v>
       </c>
       <c r="E2" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>10.0</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="J2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>47.5054</v>
+        <v>47.8445</v>
       </c>
       <c r="L2" t="n">
-        <v>-117.10215</v>
+        <v>-118.33149</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O2" t="n">
-        <v>586317.2500000005</v>
+        <v>481823.3499999998</v>
       </c>
       <c r="P2" t="n">
-        <v>55594.00000000018</v>
+        <v>92894.9999999996</v>
       </c>
     </row>
     <row r="3">
@@ -3330,49 +3357,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>18654.0</v>
+        <v>6079.0</v>
       </c>
       <c r="C3" t="n">
-        <v>22.0</v>
+        <v>37.0</v>
       </c>
       <c r="D3" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="E3" t="n">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="H3" t="n">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>47.40049</v>
+        <v>48.73705</v>
       </c>
       <c r="L3" t="n">
-        <v>-117.83639</v>
+        <v>-117.8051</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O3" t="n">
-        <v>523906.8500000005</v>
+        <v>526566.5000000003</v>
       </c>
       <c r="P3" t="n">
-        <v>44053.899999999754</v>
+        <v>191075.50000000038</v>
       </c>
     </row>
     <row r="4">
@@ -3380,49 +3407,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>19922.0</v>
+        <v>8158.0</v>
       </c>
       <c r="C4" t="n">
-        <v>26.0</v>
+        <v>39.0</v>
       </c>
       <c r="D4" t="n">
-        <v>44.0</v>
+        <v>40.0</v>
       </c>
       <c r="E4" t="n">
-        <v>20.0</v>
+        <v>34.0</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>15.08</v>
+        <v>1.2</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>47.73125</v>
+        <v>48.84756</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.27491</v>
+        <v>-117.73465</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O4" t="n">
-        <v>571632.6499999996</v>
+        <v>532554.7499999999</v>
       </c>
       <c r="P4" t="n">
-        <v>80437.5000000003</v>
+        <v>203231.60000000015</v>
       </c>
     </row>
     <row r="5">
@@ -3430,49 +3457,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>8015.0</v>
+        <v>15712.0</v>
       </c>
       <c r="C5" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="D5" t="n">
-        <v>33.0</v>
+        <v>45.0</v>
       </c>
       <c r="E5" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
         <v>36</v>
       </c>
       <c r="H5" t="n">
-        <v>29.2</v>
+        <v>2.1</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J5" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K5" t="n">
-        <v>48.69174</v>
+        <v>48.87909</v>
       </c>
       <c r="L5" t="n">
-        <v>-118.61287</v>
+        <v>-117.14995</v>
       </c>
       <c r="M5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O5" t="n">
-        <v>457906.04999999993</v>
+        <v>582254.2499999997</v>
       </c>
       <c r="P5" t="n">
-        <v>186091.4000000003</v>
+        <v>206699.89999999976</v>
       </c>
     </row>
     <row r="6">
@@ -3480,49 +3507,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>14231.0</v>
+        <v>14936.0</v>
       </c>
       <c r="C6" t="n">
-        <v>40.0</v>
+        <v>25.0</v>
       </c>
       <c r="D6" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="E6" t="n">
         <v>28.0</v>
       </c>
-      <c r="E6" t="n">
-        <v>6.0</v>
-      </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="H6" t="n">
-        <v>1.3</v>
+        <v>20.0</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.99019</v>
+        <v>47.63001</v>
       </c>
       <c r="L6" t="n">
-        <v>-119.35049</v>
+        <v>-118.2725</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O6" t="n">
-        <v>395208.35000000056</v>
+        <v>486837.5000000005</v>
       </c>
       <c r="P6" t="n">
-        <v>218920.89999999982</v>
+        <v>69301.09999999985</v>
       </c>
     </row>
     <row r="7">
@@ -3530,49 +3557,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>14650.0</v>
+        <v>8083.0</v>
       </c>
       <c r="C7" t="n">
-        <v>38.0</v>
+        <v>27.0</v>
       </c>
       <c r="D7" t="n">
-        <v>38.0</v>
+        <v>44.0</v>
       </c>
       <c r="E7" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>2.0</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.18513</v>
+        <v>47.83688</v>
       </c>
       <c r="L7" t="n">
-        <v>-118.05318</v>
+        <v>-117.24275</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O7" t="n">
-        <v>505479.7000000002</v>
+        <v>574366.2499999999</v>
       </c>
       <c r="P7" t="n">
-        <v>130364.3000000001</v>
+        <v>92056.80000000008</v>
       </c>
     </row>
     <row r="8">
@@ -3580,49 +3607,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>4593.0</v>
+        <v>6410.0</v>
       </c>
       <c r="C8" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="D8" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="E8" t="n">
-        <v>21.0</v>
+        <v>1.0</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" t="n">
-        <v>3.0</v>
+        <v>1.7</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.69333</v>
+        <v>48.7417</v>
       </c>
       <c r="L8" t="n">
-        <v>-118.024359</v>
+        <v>-117.83829</v>
       </c>
       <c r="M8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O8" t="n">
-        <v>507929.48499999964</v>
+        <v>523745.3499999999</v>
       </c>
       <c r="P8" t="n">
-        <v>186266.30000000034</v>
+        <v>191587.00000000017</v>
       </c>
     </row>
     <row r="9">
@@ -3630,49 +3657,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>4066.0</v>
+        <v>3073.0</v>
       </c>
       <c r="C9" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="D9" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.0</v>
+        <v>20.0</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>47.43319</v>
+        <v>47.5566</v>
       </c>
       <c r="L9" t="n">
-        <v>-117.71201</v>
+        <v>-117.39859</v>
       </c>
       <c r="M9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O9" t="n">
-        <v>534479.1499999994</v>
+        <v>561119.8500000001</v>
       </c>
       <c r="P9" t="n">
-        <v>47650.900000000365</v>
+        <v>61226.00000000034</v>
       </c>
     </row>
     <row r="10">
@@ -3680,49 +3707,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>4863.0</v>
+        <v>5448.0</v>
       </c>
       <c r="C10" t="n">
-        <v>37.0</v>
+        <v>24.0</v>
       </c>
       <c r="D10" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="E10" t="n">
-        <v>33.0</v>
+        <v>25.0</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="H10" t="n">
-        <v>7.1</v>
+        <v>2.1</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>48.66496</v>
+        <v>47.53815</v>
       </c>
       <c r="L10" t="n">
-        <v>-117.76187</v>
+        <v>-117.84109</v>
       </c>
       <c r="M10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O10" t="n">
-        <v>530241.0499999998</v>
+        <v>523507.3500000005</v>
       </c>
       <c r="P10" t="n">
-        <v>183145.60000000006</v>
+        <v>59196.50000000018</v>
       </c>
     </row>
     <row r="11">
@@ -3730,49 +3757,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>18825.0</v>
+        <v>7127.0</v>
       </c>
       <c r="C11" t="n">
-        <v>27.0</v>
+        <v>37.0</v>
       </c>
       <c r="D11" t="n">
-        <v>39.0</v>
+        <v>28.0</v>
       </c>
       <c r="E11" t="n">
-        <v>22.0</v>
+        <v>35.0</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H11" t="n">
-        <v>2.0</v>
+        <v>16.8</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>47.827</v>
+        <v>48.65626</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.86674</v>
+        <v>-119.25632</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O11" t="n">
-        <v>521327.1000000006</v>
+        <v>403212.7999999998</v>
       </c>
       <c r="P11" t="n">
-        <v>90969.9999999998</v>
+        <v>182188.60000000036</v>
       </c>
     </row>
   </sheetData>
@@ -3841,49 +3868,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>5928.0</v>
+        <v>16099.0</v>
       </c>
       <c r="C2" t="n">
-        <v>25.0</v>
+        <v>33.0</v>
       </c>
       <c r="D2" t="n">
-        <v>45.0</v>
+        <v>22.0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>4.7</v>
+        <v>4.0</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>47.62929</v>
+        <v>48.32871</v>
       </c>
       <c r="L2" t="n">
-        <v>-117.0492</v>
+        <v>-120.07108</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O2" t="n">
-        <v>590818.0000000001</v>
+        <v>333958.2000000004</v>
       </c>
       <c r="P2" t="n">
-        <v>69221.89999999972</v>
+        <v>146158.1000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3891,49 +3918,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>18673.0</v>
+        <v>3873.0</v>
       </c>
       <c r="C3" t="n">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="D3" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
       <c r="E3" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.00469</v>
+        <v>47.65578</v>
       </c>
       <c r="L3" t="n">
-        <v>-117.27063</v>
+        <v>-117.53166</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O3" t="n">
-        <v>571996.4500000003</v>
+        <v>549808.8999999998</v>
       </c>
       <c r="P3" t="n">
-        <v>110515.89999999962</v>
+        <v>72135.8</v>
       </c>
     </row>
     <row r="4">
@@ -3941,49 +3968,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>8075.0</v>
+        <v>5785.0</v>
       </c>
       <c r="C4" t="n">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
       <c r="D4" t="n">
-        <v>40.0</v>
+        <v>22.0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>11.1</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>47.60379</v>
+        <v>48.36872</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.71212</v>
+        <v>-120.10904</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O4" t="n">
-        <v>534469.8000000002</v>
+        <v>330731.60000000056</v>
       </c>
       <c r="P4" t="n">
-        <v>66416.89999999962</v>
+        <v>150559.20000000036</v>
       </c>
     </row>
     <row r="5">
@@ -3991,49 +4018,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>12259.0</v>
+        <v>4863.0</v>
       </c>
       <c r="C5" t="n">
-        <v>30.0</v>
+        <v>37.0</v>
       </c>
       <c r="D5" t="n">
-        <v>24.0</v>
+        <v>40.0</v>
       </c>
       <c r="E5" t="n">
-        <v>17.0</v>
+        <v>33.0</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H5" t="n">
-        <v>1.59</v>
+        <v>7.1</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>48.0928</v>
+        <v>48.66496</v>
       </c>
       <c r="L5" t="n">
-        <v>-119.84392</v>
+        <v>-117.76187</v>
       </c>
       <c r="M5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O5" t="n">
-        <v>353266.8000000002</v>
+        <v>530241.0499999998</v>
       </c>
       <c r="P5" t="n">
-        <v>120207.99999999965</v>
+        <v>183145.60000000006</v>
       </c>
     </row>
     <row r="6">
@@ -4041,49 +4068,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>13807.0</v>
+        <v>211.0</v>
       </c>
       <c r="C6" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="D6" t="n">
         <v>25.0</v>
       </c>
-      <c r="D6" t="n">
-        <v>42.0</v>
-      </c>
       <c r="E6" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H6" t="n">
-        <v>1.5</v>
+        <v>7.0</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>47.69902</v>
+        <v>48.62865</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.4994</v>
+        <v>-119.49725</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O6" t="n">
-        <v>552551.0000000005</v>
+        <v>382733.7500000005</v>
       </c>
       <c r="P6" t="n">
-        <v>76892.1999999997</v>
+        <v>179151.50000000003</v>
       </c>
     </row>
     <row r="7">
@@ -4091,49 +4118,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>10896.0</v>
+        <v>5448.0</v>
       </c>
       <c r="C7" t="n">
-        <v>35.0</v>
+        <v>24.0</v>
       </c>
       <c r="D7" t="n">
-        <v>21.0</v>
+        <v>39.0</v>
       </c>
       <c r="E7" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="H7" t="n">
-        <v>1.31</v>
+        <v>2.1</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.50315</v>
+        <v>47.53815</v>
       </c>
       <c r="L7" t="n">
-        <v>-120.17911</v>
+        <v>-117.84109</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O7" t="n">
-        <v>324775.6500000005</v>
+        <v>523507.3500000005</v>
       </c>
       <c r="P7" t="n">
-        <v>165346.49999999977</v>
+        <v>59196.50000000018</v>
       </c>
     </row>
     <row r="8">
@@ -4141,49 +4168,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>5636.0</v>
+        <v>591.0</v>
       </c>
       <c r="C8" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="D8" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="E8" t="n">
-        <v>17.0</v>
+        <v>25.0</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.3549</v>
+        <v>48.50907</v>
       </c>
       <c r="L8" t="n">
-        <v>-118.80376</v>
+        <v>-119.76364</v>
       </c>
       <c r="M8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O8" t="n">
-        <v>441680.40000000026</v>
+        <v>360090.6000000004</v>
       </c>
       <c r="P8" t="n">
-        <v>149039.00000000006</v>
+        <v>165997.70000000013</v>
       </c>
     </row>
     <row r="9">
@@ -4191,49 +4218,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>1892.0</v>
+        <v>7353.0</v>
       </c>
       <c r="C9" t="n">
         <v>32.0</v>
       </c>
       <c r="D9" t="n">
-        <v>44.0</v>
+        <v>22.0</v>
       </c>
       <c r="E9" t="n">
-        <v>17.0</v>
+        <v>31.0</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" t="n">
-        <v>1.28</v>
+        <v>5.15</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.27946</v>
+        <v>48.22858</v>
       </c>
       <c r="L9" t="n">
-        <v>-117.28179</v>
+        <v>-120.12521</v>
       </c>
       <c r="M9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O9" t="n">
-        <v>571047.85</v>
+        <v>329357.1500000004</v>
       </c>
       <c r="P9" t="n">
-        <v>140740.60000000003</v>
+        <v>135143.8000000001</v>
       </c>
     </row>
     <row r="10">
@@ -4241,49 +4268,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>14542.0</v>
+        <v>16414.0</v>
       </c>
       <c r="C10" t="n">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
       <c r="D10" t="n">
-        <v>26.0</v>
+        <v>32.0</v>
       </c>
       <c r="E10" t="n">
-        <v>25.0</v>
+        <v>14.0</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="n">
-        <v>2.0</v>
+        <v>39.8</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>48.58491</v>
+        <v>48.96102</v>
       </c>
       <c r="L10" t="n">
-        <v>-119.50309</v>
+        <v>-118.74747</v>
       </c>
       <c r="M10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O10" t="n">
-        <v>382237.35</v>
+        <v>446465.0499999994</v>
       </c>
       <c r="P10" t="n">
-        <v>174340.10000000006</v>
+        <v>215712.19999999975</v>
       </c>
     </row>
     <row r="11">
@@ -4291,49 +4318,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>10574.0</v>
+        <v>15383.0</v>
       </c>
       <c r="C11" t="n">
-        <v>26.0</v>
+        <v>31.0</v>
       </c>
       <c r="D11" t="n">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="E11" t="n">
-        <v>25.0</v>
+        <v>14.0</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" t="n">
-        <v>3.0</v>
+        <v>3.39</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>47.71718</v>
+        <v>48.18471</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.56379</v>
+        <v>-117.71793</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O11" t="n">
-        <v>547077.8500000002</v>
+        <v>533975.9500000004</v>
       </c>
       <c r="P11" t="n">
-        <v>78889.7999999999</v>
+        <v>130318.10000000028</v>
       </c>
     </row>
   </sheetData>
@@ -4402,49 +4429,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>17592.0</v>
+        <v>1733.0</v>
       </c>
       <c r="C2" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D2" t="n">
         <v>37.0</v>
       </c>
-      <c r="D2" t="n">
-        <v>27.0</v>
-      </c>
       <c r="E2" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="H2" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.7287</v>
+        <v>48.1238</v>
       </c>
       <c r="L2" t="n">
-        <v>-119.46377</v>
+        <v>-118.21171</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O2" t="n">
-        <v>385579.5500000003</v>
+        <v>492004.6500000003</v>
       </c>
       <c r="P2" t="n">
-        <v>190157.00000000038</v>
+        <v>123618.0000000003</v>
       </c>
     </row>
     <row r="3">
@@ -4452,49 +4479,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>3504.0</v>
+        <v>18048.0</v>
       </c>
       <c r="C3" t="n">
-        <v>37.0</v>
+        <v>26.0</v>
       </c>
       <c r="D3" t="n">
-        <v>28.0</v>
+        <v>41.0</v>
       </c>
       <c r="E3" t="n">
-        <v>33.0</v>
+        <v>18.0</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.65618</v>
+        <v>47.75751</v>
       </c>
       <c r="L3" t="n">
-        <v>-119.30036</v>
+        <v>-117.6877</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O3" t="n">
-        <v>399469.4000000002</v>
+        <v>536545.4999999994</v>
       </c>
       <c r="P3" t="n">
-        <v>182179.7999999999</v>
+        <v>83326.10000000038</v>
       </c>
     </row>
     <row r="4">
@@ -4502,49 +4529,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>4011.0</v>
+        <v>2760.0</v>
       </c>
       <c r="C4" t="n">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="D4" t="n">
-        <v>25.0</v>
+        <v>31.0</v>
       </c>
       <c r="E4" t="n">
-        <v>27.0</v>
+        <v>19.0</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>29.0</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.33181</v>
+        <v>48.60657</v>
       </c>
       <c r="L4" t="n">
-        <v>-119.67634</v>
+        <v>-118.9871</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O4" t="n">
-        <v>367511.1000000003</v>
+        <v>426096.5000000002</v>
       </c>
       <c r="P4" t="n">
-        <v>146499.0999999997</v>
+        <v>176722.69999999975</v>
       </c>
     </row>
     <row r="5">
@@ -4552,49 +4579,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>4563.0</v>
+        <v>8777.0</v>
       </c>
       <c r="C5" t="n">
-        <v>33.0</v>
+        <v>25.0</v>
       </c>
       <c r="D5" t="n">
-        <v>22.0</v>
+        <v>45.0</v>
       </c>
       <c r="E5" t="n">
-        <v>35.0</v>
+        <v>12.0</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="H5" t="n">
-        <v>4.0</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>48.31776</v>
+        <v>47.68032</v>
       </c>
       <c r="L5" t="n">
-        <v>-120.05477</v>
+        <v>-117.05511</v>
       </c>
       <c r="M5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O5" t="n">
-        <v>335344.5499999996</v>
+        <v>590315.65</v>
       </c>
       <c r="P5" t="n">
-        <v>144953.59999999998</v>
+        <v>74835.2000000002</v>
       </c>
     </row>
     <row r="6">
@@ -4602,49 +4629,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>8955.0</v>
+        <v>5740.0</v>
       </c>
       <c r="C6" t="n">
-        <v>40.0</v>
+        <v>25.0</v>
       </c>
       <c r="D6" t="n">
-        <v>27.0</v>
+        <v>41.0</v>
       </c>
       <c r="E6" t="n">
-        <v>27.0</v>
+        <v>12.0</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H6" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.9433</v>
+        <v>47.67732</v>
       </c>
       <c r="L6" t="n">
-        <v>-119.41077</v>
+        <v>-117.57451</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O6" t="n">
-        <v>390084.55000000005</v>
+        <v>546166.6499999997</v>
       </c>
       <c r="P6" t="n">
-        <v>213763.0000000001</v>
+        <v>74505.20000000019</v>
       </c>
     </row>
     <row r="7">
@@ -4652,49 +4679,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>7711.0</v>
+        <v>4011.0</v>
       </c>
       <c r="C7" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="D7" t="n">
-        <v>44.0</v>
+        <v>25.0</v>
       </c>
       <c r="E7" t="n">
-        <v>34.0</v>
+        <v>27.0</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
       </c>
       <c r="H7" t="n">
-        <v>5.0</v>
+        <v>29.0</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.05515</v>
+        <v>48.33181</v>
       </c>
       <c r="L7" t="n">
-        <v>-117.23282</v>
+        <v>-119.67634</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O7" t="n">
-        <v>575210.2999999997</v>
+        <v>367511.1000000003</v>
       </c>
       <c r="P7" t="n">
-        <v>116066.49999999974</v>
+        <v>146499.0999999997</v>
       </c>
     </row>
     <row r="8">
@@ -4702,49 +4729,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>18346.0</v>
+        <v>9239.0</v>
       </c>
       <c r="C8" t="n">
-        <v>25.0</v>
+        <v>32.0</v>
       </c>
       <c r="D8" t="n">
-        <v>45.0</v>
+        <v>44.0</v>
       </c>
       <c r="E8" t="n">
-        <v>32.0</v>
+        <v>19.0</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="H8" t="n">
-        <v>8.0</v>
+        <v>21.0</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>47.62237</v>
+        <v>48.25389</v>
       </c>
       <c r="L8" t="n">
-        <v>-117.14033</v>
+        <v>-117.28711</v>
       </c>
       <c r="M8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O8" t="n">
-        <v>583071.9499999995</v>
+        <v>570595.6500000001</v>
       </c>
       <c r="P8" t="n">
-        <v>68460.69999999962</v>
+        <v>137927.89999999982</v>
       </c>
     </row>
     <row r="9">
@@ -4752,49 +4779,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>1755.0</v>
+        <v>5840.0</v>
       </c>
       <c r="C9" t="n">
-        <v>28.0</v>
+        <v>32.0</v>
       </c>
       <c r="D9" t="n">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
       <c r="E9" t="n">
-        <v>24.0</v>
+        <v>29.0</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="n">
-        <v>1.8</v>
+        <v>2.0</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>47.91252</v>
+        <v>48.24608</v>
       </c>
       <c r="L9" t="n">
-        <v>-117.31815</v>
+        <v>-117.79423</v>
       </c>
       <c r="M9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O9" t="n">
-        <v>567957.2499999998</v>
+        <v>527490.4500000001</v>
       </c>
       <c r="P9" t="n">
-        <v>100377.20000000007</v>
+        <v>137068.7999999999</v>
       </c>
     </row>
     <row r="10">
@@ -4802,49 +4829,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>13149.0</v>
+        <v>2854.0</v>
       </c>
       <c r="C10" t="n">
-        <v>24.0</v>
+        <v>36.0</v>
       </c>
       <c r="D10" t="n">
-        <v>44.0</v>
+        <v>29.0</v>
       </c>
       <c r="E10" t="n">
-        <v>26.0</v>
+        <v>34.0</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H10" t="n">
-        <v>10.5</v>
+        <v>2.9</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>47.5418</v>
+        <v>48.57767</v>
       </c>
       <c r="L10" t="n">
-        <v>-117.21433</v>
+        <v>-119.17642</v>
       </c>
       <c r="M10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O10" t="n">
-        <v>576781.9499999997</v>
+        <v>410004.30000000057</v>
       </c>
       <c r="P10" t="n">
-        <v>59598.000000000226</v>
+        <v>173543.69999999975</v>
       </c>
     </row>
     <row r="11">
@@ -4852,49 +4879,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>2893.0</v>
+        <v>7708.0</v>
       </c>
       <c r="C11" t="n">
-        <v>37.0</v>
+        <v>30.0</v>
       </c>
       <c r="D11" t="n">
-        <v>28.0</v>
+        <v>23.0</v>
       </c>
       <c r="E11" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="H11" t="n">
-        <v>3.0</v>
+        <v>1.5</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.73594</v>
+        <v>48.10454</v>
       </c>
       <c r="L11" t="n">
-        <v>-119.32751</v>
+        <v>-120.01199</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O11" t="n">
-        <v>397161.6499999997</v>
+        <v>338980.8500000002</v>
       </c>
       <c r="P11" t="n">
-        <v>190953.39999999994</v>
+        <v>121499.40000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4963,49 +4990,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>125.0</v>
+        <v>10573.0</v>
       </c>
       <c r="C2" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="D2" t="n">
-        <v>45.0</v>
+        <v>41.0</v>
       </c>
       <c r="E2" t="n">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>5.0</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.0731</v>
+        <v>47.75026</v>
       </c>
       <c r="L2" t="n">
-        <v>-117.1082</v>
+        <v>-117.67146</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O2" t="n">
-        <v>585803.0000000003</v>
+        <v>537925.9000000004</v>
       </c>
       <c r="P2" t="n">
-        <v>118040.99999999962</v>
+        <v>82528.5999999997</v>
       </c>
     </row>
     <row r="3">
@@ -5013,49 +5040,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>5083.0</v>
+        <v>7595.0</v>
       </c>
       <c r="C3" t="n">
-        <v>34.0</v>
+        <v>22.0</v>
       </c>
       <c r="D3" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="E3" t="n">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.47639</v>
+        <v>47.39677</v>
       </c>
       <c r="L3" t="n">
-        <v>-118.16341</v>
+        <v>-117.83107</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O3" t="n">
-        <v>496110.1500000001</v>
+        <v>524359.0500000003</v>
       </c>
       <c r="P3" t="n">
-        <v>162402.90000000023</v>
+        <v>43644.69999999962</v>
       </c>
     </row>
     <row r="4">
@@ -5063,49 +5090,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>7127.0</v>
+        <v>2907.0</v>
       </c>
       <c r="C4" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="D4" t="n">
         <v>37.0</v>
       </c>
-      <c r="D4" t="n">
-        <v>28.0</v>
-      </c>
       <c r="E4" t="n">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G4" t="s">
         <v>36</v>
       </c>
       <c r="H4" t="n">
-        <v>16.8</v>
+        <v>1.4</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.65626</v>
+        <v>48.83751</v>
       </c>
       <c r="L4" t="n">
-        <v>-119.25632</v>
+        <v>-118.11509</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O4" t="n">
-        <v>403212.7999999998</v>
+        <v>500217.35000000044</v>
       </c>
       <c r="P4" t="n">
-        <v>182188.60000000036</v>
+        <v>202126.10000000018</v>
       </c>
     </row>
     <row r="5">
@@ -5113,49 +5140,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>12768.0</v>
+        <v>8931.0</v>
       </c>
       <c r="C5" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="D5" t="n">
-        <v>37.0</v>
+        <v>43.0</v>
       </c>
       <c r="E5" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
         <v>36</v>
       </c>
       <c r="H5" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>47.7685</v>
+        <v>47.58213</v>
       </c>
       <c r="L5" t="n">
-        <v>-118.12758</v>
+        <v>-117.38231</v>
       </c>
       <c r="M5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O5" t="n">
-        <v>499155.7000000005</v>
+        <v>562503.6499999997</v>
       </c>
       <c r="P5" t="n">
-        <v>84535.00000000033</v>
+        <v>64034.29999999993</v>
       </c>
     </row>
     <row r="6">
@@ -5163,49 +5190,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>1755.0</v>
+        <v>14145.0</v>
       </c>
       <c r="C6" t="n">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="D6" t="n">
-        <v>43.0</v>
+        <v>37.0</v>
       </c>
       <c r="E6" t="n">
-        <v>24.0</v>
+        <v>15.0</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H6" t="n">
-        <v>1.8</v>
+        <v>1.0</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>47.91252</v>
+        <v>48.61696</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.31815</v>
+        <v>-118.13797</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O6" t="n">
-        <v>567957.2499999998</v>
+        <v>498272.55000000034</v>
       </c>
       <c r="P6" t="n">
-        <v>100377.20000000007</v>
+        <v>177865.59999999986</v>
       </c>
     </row>
     <row r="7">
@@ -5213,49 +5240,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>14405.0</v>
+        <v>18892.0</v>
       </c>
       <c r="C7" t="n">
-        <v>33.0</v>
+        <v>25.0</v>
       </c>
       <c r="D7" t="n">
-        <v>37.0</v>
+        <v>41.0</v>
       </c>
       <c r="E7" t="n">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>4.0</v>
+        <v>1.75</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.36784</v>
+        <v>47.64848</v>
       </c>
       <c r="L7" t="n">
-        <v>-118.10942</v>
+        <v>-117.67657</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O7" t="n">
-        <v>500699.3</v>
+        <v>537491.5500000002</v>
       </c>
       <c r="P7" t="n">
-        <v>150462.4000000001</v>
+        <v>71332.79999999992</v>
       </c>
     </row>
     <row r="8">
@@ -5263,49 +5290,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>2893.0</v>
+        <v>19724.0</v>
       </c>
       <c r="C8" t="n">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
       <c r="D8" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.0</v>
+        <v>24.0</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="H8" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.73594</v>
+        <v>48.51196</v>
       </c>
       <c r="L8" t="n">
-        <v>-119.32751</v>
+        <v>-119.40634</v>
       </c>
       <c r="M8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O8" t="n">
-        <v>397161.6499999997</v>
+        <v>390461.1</v>
       </c>
       <c r="P8" t="n">
-        <v>190953.39999999994</v>
+        <v>166315.6000000002</v>
       </c>
     </row>
     <row r="9">
@@ -5313,49 +5340,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>1354.0</v>
+        <v>19532.0</v>
       </c>
       <c r="C9" t="n">
-        <v>25.0</v>
+        <v>39.0</v>
       </c>
       <c r="D9" t="n">
-        <v>42.0</v>
+        <v>38.0</v>
       </c>
       <c r="E9" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H9" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>47.63745</v>
+        <v>48.86248</v>
       </c>
       <c r="L9" t="n">
-        <v>-117.47314</v>
+        <v>-117.94543</v>
       </c>
       <c r="M9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O9" t="n">
-        <v>554783.1</v>
+        <v>514638.44999999984</v>
       </c>
       <c r="P9" t="n">
-        <v>70119.50000000013</v>
+        <v>204872.79999999978</v>
       </c>
     </row>
     <row r="10">
@@ -5363,49 +5390,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>1683.0</v>
+        <v>20158.0</v>
       </c>
       <c r="C10" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="E10" t="n">
         <v>30.0</v>
       </c>
-      <c r="D10" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>32.0</v>
-      </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" t="n">
-        <v>2.0</v>
+        <v>2.5</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>48.05449</v>
+        <v>48.93475</v>
       </c>
       <c r="L10" t="n">
-        <v>-117.79297</v>
+        <v>-118.56861</v>
       </c>
       <c r="M10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O10" t="n">
-        <v>527597.5500000003</v>
+        <v>461668.14999999944</v>
       </c>
       <c r="P10" t="n">
-        <v>115993.90000000014</v>
+        <v>212822.50000000012</v>
       </c>
     </row>
     <row r="11">
@@ -5413,49 +5440,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>16574.0</v>
+        <v>19065.0</v>
       </c>
       <c r="C11" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="D11" t="n">
         <v>42.0</v>
       </c>
       <c r="E11" t="n">
-        <v>30.0</v>
+        <v>18.0</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H11" t="n">
-        <v>69.0</v>
+        <v>1.8</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>47.36376</v>
+        <v>47.66297</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.56101</v>
+        <v>-117.54232</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O11" t="n">
-        <v>547314.1500000004</v>
+        <v>548902.7999999997</v>
       </c>
       <c r="P11" t="n">
-        <v>40013.59999999991</v>
+        <v>72926.70000000016</v>
       </c>
     </row>
   </sheetData>
@@ -5524,49 +5551,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>9927.0</v>
+        <v>9291.0</v>
       </c>
       <c r="C2" t="n">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="D2" t="n">
-        <v>24.0</v>
+        <v>37.0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.0</v>
+        <v>12.0</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>2.3</v>
+        <v>5.0</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.42972</v>
+        <v>48.37114</v>
       </c>
       <c r="L2" t="n">
-        <v>-119.75804</v>
+        <v>-118.09298</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O2" t="n">
-        <v>360566.6000000005</v>
+        <v>502096.70000000024</v>
       </c>
       <c r="P2" t="n">
-        <v>157269.20000000036</v>
+        <v>150825.39999999967</v>
       </c>
     </row>
     <row r="3">
@@ -5574,49 +5601,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>17410.0</v>
+        <v>9172.0</v>
       </c>
       <c r="C3" t="n">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
       <c r="D3" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="E3" t="n">
-        <v>14.0</v>
+        <v>33.0</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="H3" t="n">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.0159</v>
+        <v>47.78172</v>
       </c>
       <c r="L3" t="n">
-        <v>-117.34694</v>
+        <v>-117.53724</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O3" t="n">
-        <v>565510.0999999997</v>
+        <v>549334.6000000002</v>
       </c>
       <c r="P3" t="n">
-        <v>111749.00000000022</v>
+        <v>85989.2</v>
       </c>
     </row>
     <row r="4">
@@ -5624,49 +5651,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>18892.0</v>
+        <v>10992.0</v>
       </c>
       <c r="C4" t="n">
-        <v>25.0</v>
+        <v>40.0</v>
       </c>
       <c r="D4" t="n">
-        <v>41.0</v>
+        <v>39.0</v>
       </c>
       <c r="E4" t="n">
-        <v>19.0</v>
+        <v>30.0</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="H4" t="n">
-        <v>1.75</v>
+        <v>19.7</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>47.64848</v>
+        <v>48.94169</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.67657</v>
+        <v>-117.89633</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O4" t="n">
-        <v>537491.5500000002</v>
+        <v>518811.9499999995</v>
       </c>
       <c r="P4" t="n">
-        <v>71332.79999999992</v>
+        <v>213585.90000000014</v>
       </c>
     </row>
     <row r="5">
@@ -5674,49 +5701,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>9271.0</v>
+        <v>4631.0</v>
       </c>
       <c r="C5" t="n">
-        <v>30.0</v>
+        <v>35.0</v>
       </c>
       <c r="D5" t="n">
-        <v>44.0</v>
+        <v>38.0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H5" t="n">
-        <v>2.16</v>
+        <v>23.5</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>48.12038</v>
+        <v>48.56619</v>
       </c>
       <c r="L5" t="n">
-        <v>-117.27595</v>
+        <v>-117.96626</v>
       </c>
       <c r="M5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O5" t="n">
-        <v>571544.2500000005</v>
+        <v>512867.89999999956</v>
       </c>
       <c r="P5" t="n">
-        <v>123241.7999999997</v>
+        <v>172280.89999999988</v>
       </c>
     </row>
     <row r="6">
@@ -5724,49 +5751,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>7766.0</v>
+        <v>4359.0</v>
       </c>
       <c r="C6" t="n">
-        <v>28.0</v>
+        <v>40.0</v>
       </c>
       <c r="D6" t="n">
-        <v>36.0</v>
+        <v>27.0</v>
       </c>
       <c r="E6" t="n">
-        <v>21.0</v>
+        <v>32.0</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>47.91711</v>
+        <v>48.92104</v>
       </c>
       <c r="L6" t="n">
-        <v>-118.28422</v>
+        <v>-119.47031</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O6" t="n">
-        <v>485841.2999999996</v>
+        <v>385023.6500000002</v>
       </c>
       <c r="P6" t="n">
-        <v>100882.10000000011</v>
+        <v>211314.39999999976</v>
       </c>
     </row>
     <row r="7">
@@ -5774,49 +5801,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>2447.0</v>
+        <v>4729.0</v>
       </c>
       <c r="C7" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D7" t="n">
         <v>40.0</v>
       </c>
-      <c r="D7" t="n">
-        <v>30.0</v>
-      </c>
       <c r="E7" t="n">
-        <v>9.0</v>
+        <v>32.0</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.97841</v>
+        <v>48.05808</v>
       </c>
       <c r="L7" t="n">
-        <v>-119.03899</v>
+        <v>-117.78216</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O7" t="n">
-        <v>421685.85000000015</v>
+        <v>528516.3999999996</v>
       </c>
       <c r="P7" t="n">
-        <v>217625.09999999963</v>
+        <v>116388.79999999965</v>
       </c>
     </row>
     <row r="8">
@@ -5824,49 +5851,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>7606.0</v>
+        <v>2356.0</v>
       </c>
       <c r="C8" t="n">
-        <v>30.0</v>
+        <v>24.0</v>
       </c>
       <c r="D8" t="n">
-        <v>44.0</v>
+        <v>41.0</v>
       </c>
       <c r="E8" t="n">
-        <v>36.0</v>
+        <v>9.0</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="H8" t="n">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
       <c r="I8" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.05128</v>
+        <v>47.58188</v>
       </c>
       <c r="L8" t="n">
-        <v>-117.18385</v>
+        <v>-117.63694</v>
       </c>
       <c r="M8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O8" t="n">
-        <v>579372.7499999994</v>
+        <v>540860.1000000003</v>
       </c>
       <c r="P8" t="n">
-        <v>115640.79999999983</v>
+        <v>64006.7999999998</v>
       </c>
     </row>
     <row r="9">
@@ -5874,49 +5901,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>10301.0</v>
+        <v>5534.0</v>
       </c>
       <c r="C9" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E9" t="n">
         <v>23.0</v>
       </c>
-      <c r="D9" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.0</v>
-      </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="H9" t="n">
-        <v>12.0</v>
+        <v>12.3</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>47.50901</v>
+        <v>48.69602</v>
       </c>
       <c r="L9" t="n">
-        <v>-117.34437</v>
+        <v>-119.2675</v>
       </c>
       <c r="M9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O9" t="n">
-        <v>565728.5500000002</v>
+        <v>402262.5000000001</v>
       </c>
       <c r="P9" t="n">
-        <v>55991.100000000384</v>
+        <v>186562.1999999997</v>
       </c>
     </row>
     <row r="10">
@@ -5924,49 +5951,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>7127.0</v>
+        <v>19298.0</v>
       </c>
       <c r="C10" t="n">
-        <v>37.0</v>
+        <v>36.0</v>
       </c>
       <c r="D10" t="n">
-        <v>28.0</v>
+        <v>38.0</v>
       </c>
       <c r="E10" t="n">
-        <v>35.0</v>
+        <v>21.0</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H10" t="n">
-        <v>16.8</v>
+        <v>1.5</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>48.65626</v>
+        <v>48.60234</v>
       </c>
       <c r="L10" t="n">
-        <v>-119.25632</v>
+        <v>-118.02834</v>
       </c>
       <c r="M10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O10" t="n">
-        <v>403212.7999999998</v>
+        <v>507591.1</v>
       </c>
       <c r="P10" t="n">
-        <v>182188.60000000036</v>
+        <v>176257.3999999998</v>
       </c>
     </row>
     <row r="11">
@@ -5974,49 +6001,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>15926.0</v>
+        <v>14476.0</v>
       </c>
       <c r="C11" t="n">
-        <v>34.0</v>
+        <v>31.0</v>
       </c>
       <c r="D11" t="n">
-        <v>44.0</v>
+        <v>24.0</v>
       </c>
       <c r="E11" t="n">
-        <v>36.0</v>
+        <v>24.0</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H11" t="n">
-        <v>2.28</v>
+        <v>30.0</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.399</v>
+        <v>48.17247</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.18366</v>
+        <v>-119.77398</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O11" t="n">
-        <v>579388.8999999997</v>
+        <v>359211.7000000005</v>
       </c>
       <c r="P11" t="n">
-        <v>153890.0000000001</v>
+        <v>128971.69999999968</v>
       </c>
     </row>
   </sheetData>
